--- a/database/sidis/expdata/2041.xlsx
+++ b/database/sidis/expdata/2041.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Liu/Repos/fitpack/database/sidis/expdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D23077-E206-7741-98E3-CCF97AFEDC1C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="0" windowWidth="25600" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="16340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
   <definedNames>
     <definedName name="Zgt01_n_x_Siv" localSheetId="0">工作表1!$A$1:$M$27</definedName>
   </definedNames>
-  <calcPr calcId="140000" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140000" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,8 +28,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Zgt01_n_x_Siv.dat" type="6" refreshedVersion="0" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Zgt01_n_x_Siv.dat" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" codePage="10008" sourceFile="Macintosh HD:Users:user:Downloads:files_HEPdata 2:Zgt01_n_x_Siv.dat" space="1" comma="1" consecutive="1">
       <textFields count="11">
         <textField/>
@@ -98,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>systabs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,12 +131,16 @@
     <t>Dependence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>systabs_u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,16 +179,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,17 +225,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Zgt01_n_x_Siv" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Zgt01_n_x_Siv" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -550,14 +567,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="3" customWidth="1"/>
@@ -610,19 +627,19 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -666,13 +683,13 @@
         <v>3.3166250000000001E-3</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>2</v>
@@ -719,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>2</v>
@@ -772,13 +789,13 @@
         <v>2.645751E-3</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>2</v>
@@ -825,13 +842,13 @@
         <v>2.645751E-3</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>2</v>
@@ -878,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>2</v>
@@ -931,13 +948,13 @@
         <v>3.3166250000000001E-3</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>2</v>
@@ -984,13 +1001,13 @@
         <v>8.7177980000000006E-3</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>2</v>
@@ -1037,13 +1054,13 @@
         <v>1.1357816999999999E-2</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>2</v>
@@ -1090,13 +1107,13 @@
         <v>4.5825759999999997E-3</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>2</v>
@@ -1143,13 +1160,13 @@
         <v>4.3588990000000003E-3</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>2</v>
@@ -1196,13 +1213,13 @@
         <v>3.872983E-3</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>2</v>
@@ -1249,13 +1266,13 @@
         <v>4.5825759999999997E-3</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>2</v>
@@ -1302,13 +1319,13 @@
         <v>8.4852810000000008E-3</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>2</v>
@@ -1355,13 +1372,13 @@
         <v>1.0198039000000001E-2</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>2</v>
@@ -1408,13 +1425,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>2</v>
@@ -1461,13 +1478,13 @@
         <v>4.1231059999999996E-3</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>2</v>
@@ -1514,13 +1531,13 @@
         <v>4.3588990000000003E-3</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>2</v>
@@ -1567,13 +1584,13 @@
         <v>4.3588990000000003E-3</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>2</v>
@@ -1620,13 +1637,13 @@
         <v>7.211103E-3</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>2</v>
@@ -1673,13 +1690,13 @@
         <v>9.3808320000000004E-3</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>2</v>
@@ -1726,13 +1743,13 @@
         <v>1.5748016E-2</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>2</v>
@@ -1779,13 +1796,13 @@
         <v>1.1357816999999999E-2</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>2</v>
@@ -1832,13 +1849,13 @@
         <v>8.2462109999999998E-3</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>2</v>
@@ -1885,13 +1902,13 @@
         <v>5.9160799999999998E-3</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>2</v>
@@ -1938,13 +1955,13 @@
         <v>5.5677640000000002E-3</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>2</v>
@@ -1991,13 +2008,13 @@
         <v>1.9364916999999999E-2</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>2</v>

--- a/database/sidis/expdata/2041.xlsx
+++ b/database/sidis/expdata/2041.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/TMD-PHENO-REPOS/fitpack/database/sidis/expdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="0" windowWidth="25600" windowHeight="16340" tabRatio="500"/>
+    <workbookView xWindow="7740" yWindow="460" windowWidth="25600" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,6 +19,9 @@
   </definedNames>
   <calcPr calcId="140000" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -98,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>systabs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,6 +133,9 @@
     <t>Dependence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>systabs_u</t>
+  </si>
 </sst>
 </file>
 
@@ -138,14 +145,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -154,7 +161,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -163,7 +170,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -216,12 +223,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -554,10 +566,10 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="3" customWidth="1"/>
@@ -572,7 +584,7 @@
     <col min="14" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,22 +622,22 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -666,19 +678,19 @@
         <v>3.3166250000000001E-3</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -719,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -772,19 +784,19 @@
         <v>2.645751E-3</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -825,19 +837,19 @@
         <v>2.645751E-3</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -878,19 +890,19 @@
         <v>0</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -931,19 +943,19 @@
         <v>3.3166250000000001E-3</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -984,19 +996,19 @@
         <v>8.7177980000000006E-3</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1037,19 +1049,19 @@
         <v>1.1357816999999999E-2</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1090,19 +1102,19 @@
         <v>4.5825759999999997E-3</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1143,19 +1155,19 @@
         <v>4.3588990000000003E-3</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1196,19 +1208,19 @@
         <v>3.872983E-3</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1249,19 +1261,19 @@
         <v>4.5825759999999997E-3</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1302,19 +1314,19 @@
         <v>8.4852810000000008E-3</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1355,19 +1367,19 @@
         <v>1.0198039000000001E-2</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1408,19 +1420,19 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1461,19 +1473,19 @@
         <v>4.1231059999999996E-3</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1514,19 +1526,19 @@
         <v>4.3588990000000003E-3</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1567,19 +1579,19 @@
         <v>4.3588990000000003E-3</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1620,19 +1632,19 @@
         <v>7.211103E-3</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1673,19 +1685,19 @@
         <v>9.3808320000000004E-3</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1726,19 +1738,19 @@
         <v>1.5748016E-2</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1779,19 +1791,19 @@
         <v>1.1357816999999999E-2</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1832,19 +1844,19 @@
         <v>8.2462109999999998E-3</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1885,19 +1897,19 @@
         <v>5.9160799999999998E-3</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1938,19 +1950,19 @@
         <v>5.5677640000000002E-3</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1991,13 +2003,13 @@
         <v>1.9364916999999999E-2</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>2</v>
@@ -2007,10 +2019,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>